--- a/data/trans_dic/P02E$nadie-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,42 +691,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,87; 97,6</t>
+          <t>78,71; 97,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,8; 97,33</t>
+          <t>76,45; 97,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,18; 98,25</t>
+          <t>84,08; 98,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,08; 98,02</t>
+          <t>88,23; 98,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,2; 90,16</t>
+          <t>75,31; 90,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,82; 98,79</t>
+          <t>88,63; 98,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,87; 96,54</t>
+          <t>87,81; 96,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,69; 90,51</t>
+          <t>78,9; 90,79</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,16; 88,86</t>
+          <t>77,18; 89,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,25; 94,63</t>
+          <t>87,37; 94,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,37; 96,68</t>
+          <t>88,46; 96,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,37; 93,24</t>
+          <t>86,1; 92,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,29; 93,47</t>
+          <t>87,16; 93,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,41; 94,16</t>
+          <t>87,23; 94,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,66; 90,55</t>
+          <t>84,07; 90,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,58; 93,36</t>
+          <t>88,59; 93,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,44; 94,27</t>
+          <t>89,5; 94,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,61; 95,01</t>
+          <t>87,97; 95,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,59; 94,94</t>
+          <t>89,23; 95,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,21; 95,01</t>
+          <t>88,98; 95,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,5; 95,52</t>
+          <t>90,61; 95,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,42; 96,39</t>
+          <t>92,28; 96,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,45; 91,76</t>
+          <t>84,61; 91,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,91; 94,85</t>
+          <t>90,87; 94,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,86; 95,1</t>
+          <t>91,98; 95,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,95; 92,17</t>
+          <t>87,54; 92,26</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,21; 98,27</t>
+          <t>90,68; 98,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,81; 96,94</t>
+          <t>90,79; 97,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,22; 95,34</t>
+          <t>85,58; 95,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,75; 97,43</t>
+          <t>87,86; 97,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 97,14</t>
+          <t>90,88; 96,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,06; 95,86</t>
+          <t>87,57; 95,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,33; 97,01</t>
+          <t>91,16; 97,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,33; 96,4</t>
+          <t>92,51; 96,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,24; 94,43</t>
+          <t>88,19; 94,47</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,85; 100,0</t>
+          <t>69,8; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,33; 94,09</t>
+          <t>75,64; 95,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,76; 97,37</t>
+          <t>75,36; 97,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,58; 98,43</t>
+          <t>83,24; 98,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,63; 90,75</t>
+          <t>76,95; 91,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,2; 88,75</t>
+          <t>66,28; 89,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,61; 97,55</t>
+          <t>85,86; 97,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,14; 91,25</t>
+          <t>78,04; 90,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>74,49; 90,31</t>
+          <t>74,23; 90,16</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,3; 87,1</t>
+          <t>41,52; 87,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,07; 85,86</t>
+          <t>46,43; 86,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,97; 95,43</t>
+          <t>61,36; 95,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,82; 97,77</t>
+          <t>81,36; 98,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73,17; 93,72</t>
+          <t>74,46; 93,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,12; 92,15</t>
+          <t>67,45; 94,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,39; 93,59</t>
+          <t>75,81; 92,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,08; 88,38</t>
+          <t>69,67; 88,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>69,99; 91,0</t>
+          <t>70,72; 91,17</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,51; 89,81</t>
+          <t>49,93; 90,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 84,59</t>
+          <t>25,22; 84,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,02; 93,02</t>
+          <t>40,09; 89,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,97; 82,29</t>
+          <t>41,91; 82,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,42; 72,17</t>
+          <t>41,55; 74,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,08; 78,09</t>
+          <t>43,01; 76,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,81; 80,94</t>
+          <t>50,16; 81,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,01; 72,67</t>
+          <t>44,98; 70,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,49; 76,44</t>
+          <t>48,46; 75,61</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>87,12; 92,02</t>
+          <t>87,2; 92,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>89,47; 93,16</t>
+          <t>89,52; 93,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,18; 93,27</t>
+          <t>89,27; 93,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>89,79; 93,35</t>
+          <t>89,69; 93,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,92</t>
+          <t>90,06; 93,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>85,51; 89,55</t>
+          <t>85,53; 89,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>89,36; 92,31</t>
+          <t>89,37; 92,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,32; 92,62</t>
+          <t>90,37; 92,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>87,63; 90,59</t>
+          <t>87,71; 90,44</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que no tienen ayuda al cuidado por parte de una persona externa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30046</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37024</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36568</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46955</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>95787</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>75262</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77001</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>132812</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111831</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28137; 30046</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32275; 39975</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31157; 39687</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42508; 49691</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>89666; 99617</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>67678; 81045</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71440; 79700</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>125251; 137767</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>103067; 118588</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>139618</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>196879</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>162300</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>272531</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>354256</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>267521</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>412150</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>551135</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>429821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>128767; 148916</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>187190; 202938</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>153307; 167236</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>260793; 281314</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>340386; 364681</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>255948; 276038</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>394920; 424970</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>535779; 563845</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>417722; 440170</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>249239</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>383707</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>287815</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>366680</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>542773</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>361000</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>615919</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>926479</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>648815</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>238030; 257073</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>369842; 393824</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>277428; 296816</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>355322; 374729</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>529722; 552536</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>344633; 372516</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>602218; 628615</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>909202; 941282</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>629544; 663455</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>105558</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>216439</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>143086</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>113208</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>247573</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167847</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>218766</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>464013</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>310933</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>100127; 108526</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>207627; 222109</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>134256; 149246</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>106170; 117812</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>237782; 253167</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>159601; 174194</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>210822; 224822</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>453620; 472503</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>299072; 320366</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16110</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>42898</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35937</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>63208</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>85407</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44772</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>79319</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>128305</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>80710</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12530; 17951</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37174; 46979</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30326; 39111</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55774; 65791</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>77358; 91694</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37634; 50535</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72943; 82914</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>116802; 135663</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>72022; 87476</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9406</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15120</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17296</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>43187</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>40451</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>30305</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>52594</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>55570</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47601</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5884; 12460</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10350; 19257</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13036; 20262</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>38185; 46032</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35205; 44365</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24588; 34367</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>46323; 56652</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>48475; 61241</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>40802; 52605</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11901</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8520</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>16281</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>23868</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27574</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28182</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>32388</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36222</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8087; 14701</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3771; 12666</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4992; 11110</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10657; 20884</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17131; 30549</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19311; 34537</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20880; 33798</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25268; 39833</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>27793; 43365</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>561879</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>900587</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>691650</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>922050</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1390114</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>974281</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1483929</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2290701</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1665932</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>546033; 577409</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>881615; 916099</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>675488; 705880</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>902148; 938991</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1366090; 1411974</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>950221; 995994</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1458464; 1506307</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2260750; 2318630</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1638097; 1689040</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>